--- a/medicine/Psychotrope/Toques_et_clochers/Toques_et_clochers.xlsx
+++ b/medicine/Psychotrope/Toques_et_clochers/Toques_et_clochers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toques et Clochers est une fête gastronomique organisée par les vignerons du Sieur d'Arques afin de promouvoir les différents terroirs du vignoble limouxin.
-Elle se déroule lors du week-end des Rameaux autour de Limoux et Saint-Hilaire chaque année depuis 1990. Elle consiste à regrouper dans un village de la région un ensemble de producteurs de vins et un célèbre chef cuisinier pour organiser une vente de vin. L'argent récolté permet de restaurer l'église du village organisateur[1].
-En raison du vin coulant à flots lors de cette manifestation, elle a reçu les surnoms non officiels de « Loques et torchés » ou « Cloches et toqués »[2],[3].
+Elle se déroule lors du week-end des Rameaux autour de Limoux et Saint-Hilaire chaque année depuis 1990. Elle consiste à regrouper dans un village de la région un ensemble de producteurs de vins et un célèbre chef cuisinier pour organiser une vente de vin. L'argent récolté permet de restaurer l'église du village organisateur.
+En raison du vin coulant à flots lors de cette manifestation, elle a reçu les surnoms non officiels de « Loques et torchés » ou « Cloches et toqués »,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1990, l'événement s'est déroulé dans plusieurs villages dont le clocher de l'église a été rénové :
 1991 : Malras ;
@@ -546,9 +560,9 @@
 2018 : Loupia (annulé pour cause de solidarité envers les attentats de Carcassonne et de Trèbes) ;
 2019 : La Digne-d'Amont;
 2022 : Eglise de la Miséricorde et Château de Flandry à Limoux.
-En 2008, la vente aux enchères de vins de Limoux a permis de récolter jusqu'à 537 750 euros. Le fût dont le prix a été le plus élevé est un fût de Limoux Blanc terroir Haute-Vallée La Serpent d'André Cavaillès qui s'est envolé pour Moscou au prix de 6 100 euros[1].
+En 2008, la vente aux enchères de vins de Limoux a permis de récolter jusqu'à 537 750 euros. Le fût dont le prix a été le plus élevé est un fût de Limoux Blanc terroir Haute-Vallée La Serpent d'André Cavaillès qui s'est envolé pour Moscou au prix de 6 100 euros.
 En 2014, la vente aux enchères de Toureilles a permis de récolter 561 650 euros.
-En 2022, la vente aux enchères a permis de récolter 516 600 euros[4].
+En 2022, la vente aux enchères a permis de récolter 516 600 euros.
 </t>
         </is>
       </c>
